--- a/artifacts/2025/table_vs_lastyear.xlsx
+++ b/artifacts/2025/table_vs_lastyear.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Real GDP</t>
+          <t>US Real GDP</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Unemployment</t>
+          <t>US Unemployment</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
